--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1097ED3D-B6FA-4B19-B294-55EC241B6887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F61E0-3BE7-4E1E-9D91-1B41993C6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$156</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1663,9 +1664,6 @@
     <t>//node[%wxyz5%]</t>
   </si>
   <si>
-    <t>//node[%Tarsp_BBX%]</t>
-  </si>
-  <si>
     <t>//node[%Tarsp_Ov3%]</t>
   </si>
   <si>
@@ -1890,9 +1888,6 @@
     <t>tarsp_mvzn</t>
   </si>
   <si>
-    <t>//node[not(%bvbvraagwoord%) and (@pt='adj' or @pt='bw' or @pt='vz' or %Rpronounx%) and not(parent::node[@cat="sv1"]) and @lemma!="kijk" and ancestor::node[@cat="top" and  count(.//node[%realwordnode%])=1]]</t>
-  </si>
-  <si>
     <t>tarsp2005,tarsp2017</t>
   </si>
   <si>
@@ -1921,6 +1916,12 @@
   </si>
   <si>
     <t>//node[node[(@lemma="een" or @lemma="'n") and @pt="lid"] and node[(@pt="n" or (@pt="adj" and @positie="nom")) and @rel="hd"] and count(node)=2 ]</t>
+  </si>
+  <si>
+    <t>bbx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//node[%bvb% ] </t>
   </si>
 </sst>
 </file>
@@ -2341,11 +2342,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2409,22 +2410,22 @@
         <v>443</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2444,13 +2445,13 @@
         <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>354</v>
@@ -2462,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>354</v>
@@ -2556,7 +2557,7 @@
         <v>444</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2620,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>354</v>
@@ -2649,7 +2650,7 @@
         <v>193</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>354</v>
@@ -2775,7 +2776,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>354</v>
@@ -2839,7 +2840,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>354</v>
@@ -2851,7 +2852,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>527</v>
+        <v>607</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>354</v>
@@ -3073,7 +3074,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>231</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>391</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>354</v>
@@ -3099,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>354</v>
@@ -3166,7 +3167,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>354</v>
@@ -3230,7 +3231,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>354</v>
@@ -3274,7 +3275,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>354</v>
@@ -3286,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>354</v>
@@ -3464,7 +3465,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>354</v>
@@ -3502,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>354</v>
@@ -3552,7 +3553,7 @@
         <v>444</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
@@ -3622,7 +3623,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>354</v>
@@ -3634,7 +3635,7 @@
         <v>444</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -3660,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>354</v>
@@ -3765,7 +3766,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>354</v>
@@ -3794,7 +3795,7 @@
         <v>210</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>354</v>
@@ -3806,7 +3807,7 @@
         <v>364</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>354</v>
@@ -3835,7 +3836,7 @@
         <v>211</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>354</v>
@@ -3847,7 +3848,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>354</v>
@@ -3873,7 +3874,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>354</v>
@@ -4005,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>354</v>
@@ -4110,7 +4111,7 @@
         <v>203</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>354</v>
@@ -4186,7 +4187,7 @@
         <v>355</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>355</v>
@@ -4294,7 +4295,7 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>354</v>
@@ -4332,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>354</v>
@@ -4484,7 +4485,7 @@
         <v>444</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -4510,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>355</v>
@@ -4539,7 +4540,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>354</v>
@@ -4551,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>354</v>
@@ -4580,7 +4581,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>354</v>
@@ -4592,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>354</v>
@@ -4642,7 +4643,7 @@
         <v>444</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -4823,7 +4824,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>354</v>
@@ -4852,7 +4853,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>354</v>
@@ -4864,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>354</v>
@@ -4893,7 +4894,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>354</v>
@@ -4905,7 +4906,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>354</v>
@@ -4934,7 +4935,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>354</v>
@@ -4975,7 +4976,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>354</v>
@@ -5016,7 +5017,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>354</v>
@@ -5057,7 +5058,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>354</v>
@@ -5098,10 +5099,10 @@
         <v>407</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>354</v>
@@ -5139,10 +5140,10 @@
         <v>188</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>354</v>
@@ -5154,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>354</v>
@@ -5204,7 +5205,7 @@
         <v>444</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5239,7 +5240,7 @@
         <v>444</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5297,10 +5298,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>354</v>
@@ -5341,10 +5342,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>354</v>
@@ -5382,7 +5383,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>354</v>
@@ -5406,7 +5407,7 @@
         <v>444</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
@@ -5470,7 +5471,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>354</v>
@@ -5508,7 +5509,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>354</v>
@@ -5584,7 +5585,7 @@
         <v>444</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5709,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>354</v>
@@ -5884,7 +5885,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>354</v>
@@ -5913,10 +5914,10 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>354</v>
@@ -5928,7 +5929,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>354</v>
@@ -5960,7 +5961,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>354</v>
@@ -6083,7 +6084,7 @@
         <v>444</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6112,7 +6113,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>354</v>
@@ -6188,7 +6189,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>354</v>
@@ -6223,7 +6224,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>354</v>
@@ -6311,7 +6312,7 @@
         <v>456</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>167</v>
@@ -6498,7 +6499,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>354</v>
@@ -6543,7 +6544,7 @@
         <v>444</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6569,7 +6570,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>354</v>
@@ -6605,7 +6606,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>354</v>
@@ -6666,7 +6667,7 @@
         <v>193</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>354</v>
@@ -6678,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>355</v>
@@ -6713,7 +6714,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>354</v>
@@ -6745,7 +6746,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>354</v>
@@ -6877,7 +6878,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>354</v>
@@ -6924,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>354</v>
@@ -7023,10 +7024,10 @@
         <v>71</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>354</v>
@@ -7067,7 +7068,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>354</v>
@@ -7111,7 +7112,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>354</v>
@@ -7254,7 +7255,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>354</v>
@@ -7295,7 +7296,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>354</v>
@@ -7339,7 +7340,7 @@
         <v>442</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>354</v>
@@ -7464,7 +7465,7 @@
         <v>205</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>354</v>
@@ -7476,7 +7477,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>354</v>
@@ -7628,7 +7629,7 @@
         <v>444</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -7645,7 +7646,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>354</v>
@@ -7657,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>354</v>
@@ -7922,7 +7923,7 @@
         <v>411</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>354</v>
@@ -8103,7 +8104,7 @@
         <v>445</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
@@ -8163,7 +8164,7 @@
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>125</v>
@@ -8175,34 +8176,34 @@
         <v>139</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J156" s="2">
         <v>6</v>
       </c>
       <c r="K156" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="R156" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="U156" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="L156" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M156" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="R156" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="U156" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F61E0-3BE7-4E1E-9D91-1B41993C6B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F94BEA5-655D-4B65-B11C-69377E7F1520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$156</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1185,9 +1184,6 @@
     <t>we must require a finite verb, but prbaly not too deep (incl. mensen die zwemmen should not do!)</t>
   </si>
   <si>
-    <t>//node[@rel="mod"and @cat="cp" and node[@rel="body" and node[@pt="ww" and @pvagr and @rel="hd"]]]</t>
-  </si>
-  <si>
     <t>//node[@rel="su" and @cat]</t>
   </si>
   <si>
@@ -1922,6 +1918,9 @@
   </si>
   <si>
     <t xml:space="preserve">//node[%bvb% ] </t>
+  </si>
+  <si>
+    <t>//node[@rel="mod"and @cat="cp" and not(%Tarsp_ofmod%) and  node[@rel="body" and node[@pt="ww" and @pvagr and @rel="hd"]]]</t>
   </si>
 </sst>
 </file>
@@ -2342,11 +2341,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2401,31 +2400,31 @@
         <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2445,13 +2444,13 @@
         <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>354</v>
@@ -2463,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>354</v>
@@ -2472,10 +2471,10 @@
         <v>355</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2504,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>354</v>
@@ -2513,10 +2512,10 @@
         <v>354</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2533,7 +2532,7 @@
         <v>193</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
@@ -2554,10 +2553,10 @@
         <v>355</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2592,7 +2591,7 @@
         <v>355</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>185</v>
@@ -2621,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>354</v>
@@ -2630,13 +2629,13 @@
         <v>355</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>360</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -2650,7 +2649,7 @@
         <v>193</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>354</v>
@@ -2662,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>355</v>
@@ -2671,7 +2670,7 @@
         <v>355</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
@@ -2709,7 +2708,7 @@
         <v>355</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -2738,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>375</v>
+        <v>608</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>354</v>
@@ -2747,7 +2746,7 @@
         <v>354</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>374</v>
@@ -2776,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>354</v>
@@ -2785,7 +2784,7 @@
         <v>355</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -2820,7 +2819,7 @@
         <v>355</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -2840,7 +2839,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>354</v>
@@ -2852,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>354</v>
@@ -2861,7 +2860,7 @@
         <v>355</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
@@ -2896,7 +2895,7 @@
         <v>355</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -2925,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>355</v>
@@ -2934,7 +2933,7 @@
         <v>355</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
@@ -2960,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>354</v>
@@ -2969,7 +2968,7 @@
         <v>355</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -2989,7 +2988,7 @@
         <v>354</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>355</v>
@@ -2998,7 +2997,7 @@
         <v>355</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -3030,7 +3029,7 @@
         <v>354</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -3047,10 +3046,10 @@
         <v>193</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>354</v>
@@ -3068,10 +3067,10 @@
         <v>355</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -3085,10 +3084,10 @@
         <v>193</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>354</v>
@@ -3100,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>354</v>
@@ -3109,7 +3108,7 @@
         <v>354</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -3141,7 +3140,7 @@
         <v>355</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -3167,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>354</v>
@@ -3176,7 +3175,7 @@
         <v>355</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -3202,7 +3201,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>354</v>
@@ -3211,7 +3210,7 @@
         <v>355</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -3231,7 +3230,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>354</v>
@@ -3243,7 +3242,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>354</v>
@@ -3252,7 +3251,7 @@
         <v>355</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3269,13 +3268,13 @@
         <v>193</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>354</v>
@@ -3287,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>354</v>
@@ -3296,10 +3295,10 @@
         <v>355</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -3331,7 +3330,7 @@
         <v>355</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -3357,7 +3356,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>354</v>
@@ -3366,10 +3365,10 @@
         <v>355</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -3404,7 +3403,7 @@
         <v>355</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -3439,7 +3438,7 @@
         <v>354</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -3465,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>354</v>
@@ -3474,7 +3473,7 @@
         <v>355</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>372</v>
@@ -3503,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>354</v>
@@ -3512,7 +3511,7 @@
         <v>354</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>185</v>
@@ -3550,10 +3549,10 @@
         <v>355</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
@@ -3591,7 +3590,7 @@
         <v>355</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
@@ -3623,7 +3622,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>354</v>
@@ -3632,10 +3631,10 @@
         <v>355</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -3661,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>354</v>
@@ -3670,7 +3669,7 @@
         <v>355</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -3705,7 +3704,7 @@
         <v>354</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
@@ -3740,7 +3739,7 @@
         <v>354</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -3766,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>354</v>
@@ -3775,7 +3774,7 @@
         <v>355</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -3795,7 +3794,7 @@
         <v>210</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>354</v>
@@ -3807,7 +3806,7 @@
         <v>364</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>354</v>
@@ -3816,7 +3815,7 @@
         <v>355</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -3836,7 +3835,7 @@
         <v>211</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>354</v>
@@ -3848,7 +3847,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>354</v>
@@ -3857,7 +3856,7 @@
         <v>355</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
@@ -3874,7 +3873,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>354</v>
@@ -3886,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>354</v>
@@ -3895,10 +3894,10 @@
         <v>354</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -3933,7 +3932,7 @@
         <v>354</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -3953,7 +3952,7 @@
         <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>354</v>
@@ -3971,7 +3970,7 @@
         <v>355</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>161</v>
@@ -3991,10 +3990,10 @@
         <v>193</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>354</v>
@@ -4006,7 +4005,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>354</v>
@@ -4015,7 +4014,7 @@
         <v>355</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U43" s="2" t="s">
         <v>359</v>
@@ -4044,7 +4043,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>354</v>
@@ -4053,7 +4052,7 @@
         <v>355</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
@@ -4079,7 +4078,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>354</v>
@@ -4088,7 +4087,7 @@
         <v>355</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -4111,7 +4110,7 @@
         <v>203</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>354</v>
@@ -4123,7 +4122,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>354</v>
@@ -4132,7 +4131,7 @@
         <v>355</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
@@ -4158,7 +4157,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>354</v>
@@ -4167,7 +4166,7 @@
         <v>355</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U47" s="2" t="s">
         <v>185</v>
@@ -4187,7 +4186,7 @@
         <v>355</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>355</v>
@@ -4196,7 +4195,7 @@
         <v>355</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U48" s="6" t="s">
         <v>180</v>
@@ -4234,7 +4233,7 @@
         <v>355</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -4260,7 +4259,7 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>354</v>
@@ -4269,7 +4268,7 @@
         <v>355</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -4295,7 +4294,7 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>354</v>
@@ -4304,7 +4303,7 @@
         <v>355</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
@@ -4333,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>354</v>
@@ -4342,7 +4341,7 @@
         <v>355</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -4368,7 +4367,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>354</v>
@@ -4377,7 +4376,7 @@
         <v>355</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
@@ -4406,7 +4405,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>354</v>
@@ -4415,7 +4414,7 @@
         <v>355</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
@@ -4450,7 +4449,7 @@
         <v>354</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
@@ -4482,10 +4481,10 @@
         <v>355</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
@@ -4511,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>355</v>
@@ -4520,7 +4519,7 @@
         <v>355</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
@@ -4540,7 +4539,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>354</v>
@@ -4552,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>354</v>
@@ -4561,7 +4560,7 @@
         <v>354</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
@@ -4581,7 +4580,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>354</v>
@@ -4593,7 +4592,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>354</v>
@@ -4602,7 +4601,7 @@
         <v>355</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
@@ -4619,7 +4618,7 @@
         <v>193</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>65</v>
@@ -4640,10 +4639,10 @@
         <v>355</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
@@ -4678,10 +4677,10 @@
         <v>355</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
@@ -4716,10 +4715,10 @@
         <v>355</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
@@ -4754,10 +4753,10 @@
         <v>355</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
@@ -4783,7 +4782,7 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>355</v>
@@ -4792,7 +4791,7 @@
         <v>354</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
@@ -4824,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>354</v>
@@ -4833,7 +4832,7 @@
         <v>354</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
@@ -4853,7 +4852,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>354</v>
@@ -4865,7 +4864,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>354</v>
@@ -4874,7 +4873,7 @@
         <v>354</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
@@ -4894,7 +4893,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>354</v>
@@ -4906,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>354</v>
@@ -4915,7 +4914,7 @@
         <v>355</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
@@ -4935,7 +4934,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>354</v>
@@ -4947,7 +4946,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>354</v>
@@ -4956,7 +4955,7 @@
         <v>355</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
@@ -4976,7 +4975,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>354</v>
@@ -4988,7 +4987,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>354</v>
@@ -4997,7 +4996,7 @@
         <v>354</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
@@ -5017,7 +5016,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>354</v>
@@ -5029,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>354</v>
@@ -5038,7 +5037,7 @@
         <v>354</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
@@ -5058,7 +5057,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>354</v>
@@ -5070,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>354</v>
@@ -5079,7 +5078,7 @@
         <v>354</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
@@ -5096,13 +5095,13 @@
         <v>193</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>354</v>
@@ -5120,7 +5119,7 @@
         <v>355</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
@@ -5140,10 +5139,10 @@
         <v>188</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>354</v>
@@ -5155,7 +5154,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>354</v>
@@ -5164,7 +5163,7 @@
         <v>355</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
@@ -5184,7 +5183,7 @@
         <v>189</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>354</v>
@@ -5202,10 +5201,10 @@
         <v>355</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5237,10 +5236,10 @@
         <v>355</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5257,7 +5256,7 @@
         <v>191</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>354</v>
@@ -5275,7 +5274,7 @@
         <v>355</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U76" s="2" t="s">
         <v>186</v>
@@ -5298,10 +5297,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>354</v>
@@ -5313,7 +5312,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>354</v>
@@ -5322,7 +5321,7 @@
         <v>355</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
@@ -5342,10 +5341,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>354</v>
@@ -5357,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>354</v>
@@ -5366,7 +5365,7 @@
         <v>355</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
@@ -5383,7 +5382,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>354</v>
@@ -5395,7 +5394,7 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>354</v>
@@ -5404,10 +5403,10 @@
         <v>355</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
@@ -5442,7 +5441,7 @@
         <v>355</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>164</v>
@@ -5471,7 +5470,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>354</v>
@@ -5480,7 +5479,7 @@
         <v>355</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -5497,7 +5496,7 @@
         <v>150</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>354</v>
@@ -5509,7 +5508,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>354</v>
@@ -5518,7 +5517,7 @@
         <v>355</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
@@ -5544,7 +5543,7 @@
         <v>355</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
@@ -5582,10 +5581,10 @@
         <v>355</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
@@ -5617,7 +5616,7 @@
         <v>355</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
@@ -5649,7 +5648,7 @@
         <v>355</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
@@ -5681,7 +5680,7 @@
         <v>355</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
@@ -5695,10 +5694,10 @@
         <v>193</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>354</v>
@@ -5710,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>354</v>
@@ -5719,7 +5718,7 @@
         <v>355</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
@@ -5733,7 +5732,7 @@
         <v>193</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>354</v>
@@ -5745,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>354</v>
@@ -5754,7 +5753,7 @@
         <v>355</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
@@ -5768,10 +5767,10 @@
         <v>193</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>354</v>
@@ -5789,12 +5788,12 @@
         <v>355</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
@@ -5803,22 +5802,22 @@
         <v>193</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>354</v>
@@ -5827,7 +5826,7 @@
         <v>355</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
@@ -5844,7 +5843,7 @@
         <v>354</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>355</v>
@@ -5853,7 +5852,7 @@
         <v>355</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
@@ -5873,7 +5872,7 @@
         <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>354</v>
@@ -5885,7 +5884,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>354</v>
@@ -5894,7 +5893,7 @@
         <v>354</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
@@ -5914,10 +5913,10 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>354</v>
@@ -5929,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>354</v>
@@ -5938,7 +5937,7 @@
         <v>354</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>159</v>
@@ -5961,7 +5960,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>354</v>
@@ -5973,7 +5972,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>354</v>
@@ -5982,7 +5981,7 @@
         <v>354</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
@@ -6008,7 +6007,7 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>355</v>
@@ -6017,7 +6016,7 @@
         <v>354</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
@@ -6034,13 +6033,13 @@
         <v>354</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>354</v>
@@ -6049,7 +6048,7 @@
         <v>355</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
@@ -6081,10 +6080,10 @@
         <v>355</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6098,7 +6097,7 @@
         <v>195</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>142</v>
@@ -6113,7 +6112,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>354</v>
@@ -6122,10 +6121,10 @@
         <v>355</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
@@ -6142,7 +6141,7 @@
         <v>153</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>354</v>
@@ -6154,7 +6153,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>354</v>
@@ -6163,7 +6162,7 @@
         <v>354</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
@@ -6189,7 +6188,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>354</v>
@@ -6198,7 +6197,7 @@
         <v>355</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
@@ -6224,7 +6223,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>354</v>
@@ -6233,7 +6232,7 @@
         <v>355</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
@@ -6271,7 +6270,7 @@
         <v>355</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
@@ -6285,10 +6284,10 @@
         <v>195</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>354</v>
@@ -6306,13 +6305,13 @@
         <v>355</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>167</v>
@@ -6341,7 +6340,7 @@
         <v>355</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U105" s="2" t="s">
         <v>358</v>
@@ -6376,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>354</v>
@@ -6385,7 +6384,7 @@
         <v>355</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U106" s="2" t="s">
         <v>162</v>
@@ -6417,7 +6416,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>354</v>
@@ -6426,10 +6425,10 @@
         <v>355</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
@@ -6458,7 +6457,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>354</v>
@@ -6467,10 +6466,10 @@
         <v>354</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U108" s="2" t="s">
         <v>162</v>
@@ -6499,7 +6498,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>354</v>
@@ -6508,7 +6507,7 @@
         <v>355</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
@@ -6541,10 +6540,10 @@
         <v>355</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6570,7 +6569,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>354</v>
@@ -6579,7 +6578,7 @@
         <v>354</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6606,7 +6605,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>354</v>
@@ -6615,10 +6614,10 @@
         <v>355</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
@@ -6653,7 +6652,7 @@
         <v>355</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
@@ -6667,7 +6666,7 @@
         <v>193</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>354</v>
@@ -6679,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>355</v>
@@ -6688,7 +6687,7 @@
         <v>354</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -6714,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>354</v>
@@ -6723,10 +6722,10 @@
         <v>355</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
@@ -6746,7 +6745,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>354</v>
@@ -6758,7 +6757,7 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>354</v>
@@ -6767,7 +6766,7 @@
         <v>355</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
@@ -6795,7 +6794,7 @@
         <v>355</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
@@ -6820,7 +6819,7 @@
         <v>355</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
@@ -6855,7 +6854,7 @@
         <v>355</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U119" s="2" t="s">
         <v>185</v>
@@ -6878,7 +6877,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>354</v>
@@ -6890,7 +6889,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>354</v>
@@ -6899,7 +6898,7 @@
         <v>355</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
@@ -6925,7 +6924,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>354</v>
@@ -6934,7 +6933,7 @@
         <v>355</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
@@ -6960,7 +6959,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>355</v>
@@ -6969,7 +6968,7 @@
         <v>354</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
@@ -7004,7 +7003,7 @@
         <v>354</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
@@ -7024,10 +7023,10 @@
         <v>71</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>354</v>
@@ -7039,7 +7038,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>354</v>
@@ -7048,7 +7047,7 @@
         <v>355</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
@@ -7068,7 +7067,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>354</v>
@@ -7080,7 +7079,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>354</v>
@@ -7089,10 +7088,10 @@
         <v>355</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
@@ -7112,7 +7111,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>354</v>
@@ -7124,7 +7123,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>354</v>
@@ -7133,7 +7132,7 @@
         <v>354</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
@@ -7165,7 +7164,7 @@
         <v>355</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U127" s="2" t="s">
         <v>184</v>
@@ -7194,7 +7193,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>354</v>
@@ -7203,7 +7202,7 @@
         <v>355</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
@@ -7235,7 +7234,7 @@
         <v>355</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
@@ -7255,7 +7254,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>354</v>
@@ -7267,7 +7266,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>354</v>
@@ -7276,7 +7275,7 @@
         <v>355</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
@@ -7296,7 +7295,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>354</v>
@@ -7308,7 +7307,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>354</v>
@@ -7317,7 +7316,7 @@
         <v>355</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
@@ -7337,10 +7336,10 @@
         <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>354</v>
@@ -7352,7 +7351,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>354</v>
@@ -7361,10 +7360,10 @@
         <v>355</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
@@ -7381,7 +7380,7 @@
         <v>105</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
@@ -7394,7 +7393,7 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>354</v>
@@ -7403,7 +7402,7 @@
         <v>355</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
@@ -7424,7 +7423,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>354</v>
@@ -7442,7 +7441,7 @@
         <v>355</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
@@ -7465,7 +7464,7 @@
         <v>205</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>354</v>
@@ -7477,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>354</v>
@@ -7486,7 +7485,7 @@
         <v>355</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
@@ -7506,7 +7505,7 @@
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>354</v>
@@ -7524,7 +7523,7 @@
         <v>355</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
@@ -7550,7 +7549,7 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>354</v>
@@ -7559,7 +7558,7 @@
         <v>355</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
@@ -7588,10 +7587,10 @@
         <v>355</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="72" x14ac:dyDescent="0.3">
@@ -7617,7 +7616,7 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>354</v>
@@ -7626,10 +7625,10 @@
         <v>355</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -7646,7 +7645,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>354</v>
@@ -7658,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>354</v>
@@ -7667,7 +7666,7 @@
         <v>354</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
@@ -7702,7 +7701,7 @@
         <v>355</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U141" s="2" t="s">
         <v>196</v>
@@ -7719,7 +7718,7 @@
         <v>194</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>354</v>
@@ -7728,7 +7727,7 @@
         <v>362</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>355</v>
@@ -7737,7 +7736,7 @@
         <v>355</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U142" s="12" t="s">
         <v>363</v>
@@ -7745,25 +7744,25 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="H143" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I143" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="J143" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>354</v>
@@ -7772,97 +7771,97 @@
         <v>355</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U143" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I144" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I144" s="2" t="s">
+      <c r="K144" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="U144" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="U144" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I145" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="U145" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="U145" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>354</v>
@@ -7871,33 +7870,33 @@
         <v>355</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U146" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="H147" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>364</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>354</v>
@@ -7906,34 +7905,34 @@
         <v>355</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="L148" s="2" t="s">
         <v>354</v>
       </c>
@@ -7941,28 +7940,28 @@
         <v>355</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I149" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="L149" s="2" t="s">
         <v>355</v>
       </c>
@@ -7970,33 +7969,33 @@
         <v>354</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U149" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>354</v>
@@ -8005,30 +8004,30 @@
         <v>355</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>354</v>
@@ -8037,30 +8036,30 @@
         <v>355</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>354</v>
@@ -8069,30 +8068,30 @@
         <v>355</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>354</v>
@@ -8101,30 +8100,30 @@
         <v>355</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I154" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H154" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="K154" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>354</v>
@@ -8133,24 +8132,24 @@
         <v>355</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>354</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>354</v>
@@ -8159,12 +8158,12 @@
         <v>355</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>125</v>
@@ -8176,34 +8175,34 @@
         <v>139</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J156" s="2">
         <v>6</v>
       </c>
       <c r="K156" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="R156" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="L156" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M156" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="R156" s="2" t="s">
+      <c r="U156" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="U156" s="2" t="s">
-        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F94BEA5-655D-4B65-B11C-69377E7F1520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BC3983-F2BC-4346-B33D-0B4526380DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="610">
   <si>
     <t>Item</t>
   </si>
@@ -642,12 +642,6 @@
   </si>
   <si>
     <t>//node[@lemma="het" and @pt='vnw' ]</t>
-  </si>
-  <si>
-    <t>//node[@cat="np" and
-    node[@rel="det" ] and
-    node[@rel="mod" and @pt="adj"] and
-    node[@rel="hd" and @pt="n"]]</t>
   </si>
   <si>
     <t>Sv1</t>
@@ -1591,11 +1585,6 @@
   </si>
   <si>
     <t>Znx</t>
-  </si>
-  <si>
-    <t>//node[@cat="np" and
-    node[@pdtype="det" and @rel="det" and @positie="prenom"  and @vwtype="bez" and @pt="vnw" ] and
-    node[(@pt="n"  or (@pt="adj" and @positie="nom")) and @rel="hd"]]</t>
   </si>
   <si>
     <t>//node[node[@pt="ww"  and @rel ="hd"] and node[@rel="pc" and not(%Tarsp_B%)]]</t>
@@ -1869,9 +1858,6 @@
     <t>//node[@pt="n" and %realwordnode% and @lemma!="kijk"]/ancestor::node[@cat="top" and  count(.//node[%realwordnode%])=1]</t>
   </si>
   <si>
-    <t>//node[(@cat="np" and node[@rel="det"] and node[@rel="mod" and @pt="bw" and (not(@special) or @special!="er")] and count(node)=3) ]</t>
-  </si>
-  <si>
     <t>//node[%Tarsp_Hwwvd%]</t>
   </si>
   <si>
@@ -1921,6 +1907,18 @@
   </si>
   <si>
     <t>//node[@rel="mod"and @cat="cp" and not(%Tarsp_ofmod%) and  node[@rel="body" and node[@pt="ww" and @pvagr and @rel="hd"]]]</t>
+  </si>
+  <si>
+    <t>//node[%BepBvZn%]</t>
+  </si>
+  <si>
+    <t>//node[%BvBepZn% ]</t>
+  </si>
+  <si>
+    <t>//node[%OvWG4%]</t>
+  </si>
+  <si>
+    <t>//node[%BezZn%]</t>
   </si>
 </sst>
 </file>
@@ -2338,14 +2336,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2382,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -2400,39 +2399,39 @@
         <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -2444,16 +2443,16 @@
         <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I2" s="2">
         <v>60</v>
@@ -2462,24 +2461,24 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -2488,13 +2487,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I3" s="2">
         <v>56</v>
@@ -2503,24 +2502,24 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -2532,13 +2531,13 @@
         <v>193</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>64</v>
@@ -2547,21 +2546,21 @@
         <v>7</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>119</v>
@@ -2573,7 +2572,7 @@
         <v>122</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I5" s="2">
         <v>77</v>
@@ -2585,21 +2584,21 @@
         <v>171</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>125</v>
@@ -2611,7 +2610,7 @@
         <v>126</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I6" s="2">
         <v>79</v>
@@ -2620,27 +2619,27 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -2649,10 +2648,10 @@
         <v>193</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I7" s="2">
         <v>42</v>
@@ -2661,21 +2660,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>83</v>
@@ -2690,7 +2689,7 @@
         <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I8" s="2">
         <v>70</v>
@@ -2699,21 +2698,21 @@
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
@@ -2722,13 +2721,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I9" s="2">
         <v>57</v>
@@ -2737,24 +2736,24 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>83</v>
@@ -2766,7 +2765,7 @@
         <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I10" s="2">
         <v>67</v>
@@ -2775,21 +2774,21 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>83</v>
@@ -2804,7 +2803,7 @@
         <v>99</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I11" s="2">
         <v>70</v>
@@ -2813,18 +2812,18 @@
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -2839,10 +2838,10 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I12" s="2">
         <v>50</v>
@@ -2851,21 +2850,21 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>83</v>
@@ -2877,7 +2876,7 @@
         <v>101</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I13" s="2">
         <v>71</v>
@@ -2886,21 +2885,21 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>199</v>
+        <v>606</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>83</v>
@@ -2915,7 +2914,7 @@
         <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I14" s="2">
         <v>70</v>
@@ -2924,21 +2923,21 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>83</v>
@@ -2950,7 +2949,7 @@
         <v>94</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I15" s="2">
         <v>68</v>
@@ -2959,21 +2958,21 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>506</v>
+        <v>609</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>193</v>
@@ -2982,27 +2981,27 @@
         <v>175</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>114</v>
@@ -3014,7 +3013,7 @@
         <v>117</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I17" s="2">
         <v>75</v>
@@ -3023,18 +3022,18 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
@@ -3046,13 +3045,13 @@
         <v>193</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>50</v>
@@ -3061,21 +3060,21 @@
         <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -3084,13 +3083,13 @@
         <v>193</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I19" s="2">
         <v>40</v>
@@ -3099,21 +3098,21 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>141</v>
@@ -3125,7 +3124,7 @@
         <v>154</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>156</v>
@@ -3134,18 +3133,18 @@
         <v>6</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>83</v>
@@ -3157,7 +3156,7 @@
         <v>96</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I21" s="2">
         <v>69</v>
@@ -3166,21 +3165,21 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>83</v>
@@ -3192,7 +3191,7 @@
         <v>87</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I22" s="2">
         <v>66</v>
@@ -3201,21 +3200,21 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
@@ -3230,10 +3229,10 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I23" s="2">
         <v>53</v>
@@ -3242,21 +3241,21 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="23.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
@@ -3268,16 +3267,16 @@
         <v>193</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>27</v>
@@ -3286,24 +3285,24 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -3315,7 +3314,7 @@
         <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>18</v>
@@ -3324,18 +3323,18 @@
         <v>1</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>83</v>
@@ -3347,7 +3346,7 @@
         <v>88</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I26" s="2">
         <v>66</v>
@@ -3356,24 +3355,24 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>83</v>
@@ -3385,7 +3384,7 @@
         <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I27" s="2">
         <v>68</v>
@@ -3394,21 +3393,21 @@
         <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>83</v>
@@ -3420,7 +3419,7 @@
         <v>104</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I28" s="2">
         <v>71</v>
@@ -3429,21 +3428,21 @@
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>83</v>
@@ -3455,7 +3454,7 @@
         <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I29" s="2">
         <v>64</v>
@@ -3464,24 +3463,24 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>119</v>
@@ -3493,7 +3492,7 @@
         <v>120</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I30" s="2">
         <v>77</v>
@@ -3502,24 +3501,24 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>125</v>
@@ -3531,7 +3530,7 @@
         <v>136</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I31" s="2">
         <v>81</v>
@@ -3543,21 +3542,21 @@
         <v>172</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>83</v>
@@ -3569,10 +3568,10 @@
         <v>106</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I32" s="2">
         <v>72</v>
@@ -3581,21 +3580,21 @@
         <v>6</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>19</v>
@@ -3610,10 +3609,10 @@
         <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>69</v>
@@ -3622,24 +3621,24 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>125</v>
@@ -3651,7 +3650,7 @@
         <v>138</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I34" s="2">
         <v>82</v>
@@ -3660,21 +3659,21 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>125</v>
@@ -3686,7 +3685,7 @@
         <v>131</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I35" s="2">
         <v>80</v>
@@ -3698,18 +3697,18 @@
         <v>198</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -3721,7 +3720,7 @@
         <v>103</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I36" s="2">
         <v>71</v>
@@ -3730,21 +3729,21 @@
         <v>5</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>125</v>
@@ -3756,7 +3755,7 @@
         <v>129</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I37" s="2">
         <v>80</v>
@@ -3765,21 +3764,21 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>83</v>
@@ -3791,36 +3790,36 @@
         <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I38" s="2">
         <v>65</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>83</v>
@@ -3832,13 +3831,13 @@
         <v>95</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I39" s="2">
         <v>69</v>
@@ -3847,21 +3846,21 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>141</v>
@@ -3873,10 +3872,10 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>146</v>
@@ -3885,24 +3884,24 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>125</v>
@@ -3914,7 +3913,7 @@
         <v>127</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I41" s="2">
         <v>79</v>
@@ -3926,18 +3925,18 @@
         <v>165</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -3952,10 +3951,10 @@
         <v>67</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I42" s="2">
         <v>59</v>
@@ -3964,21 +3963,21 @@
         <v>2</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>19</v>
@@ -3990,13 +3989,13 @@
         <v>193</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
@@ -4005,24 +4004,24 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>125</v>
@@ -4034,7 +4033,7 @@
         <v>128</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I44" s="2">
         <v>79</v>
@@ -4043,21 +4042,21 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>125</v>
@@ -4069,7 +4068,7 @@
         <v>137</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I45" s="2">
         <v>82</v>
@@ -4078,21 +4077,21 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>19</v>
@@ -4107,13 +4106,13 @@
         <v>28</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>29</v>
@@ -4122,21 +4121,21 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>119</v>
@@ -4148,7 +4147,7 @@
         <v>121</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I47" s="2">
         <v>77</v>
@@ -4157,53 +4156,53 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U47" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U48" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>19</v>
@@ -4218,7 +4217,7 @@
         <v>20</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>22</v>
@@ -4227,18 +4226,18 @@
         <v>1</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>125</v>
@@ -4250,7 +4249,7 @@
         <v>135</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I50" s="2">
         <v>81</v>
@@ -4259,21 +4258,21 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>141</v>
@@ -4285,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I51" s="2">
         <v>87</v>
@@ -4294,21 +4293,21 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>141</v>
@@ -4320,10 +4319,10 @@
         <v>143</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>144</v>
@@ -4332,21 +4331,21 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>83</v>
@@ -4358,7 +4357,7 @@
         <v>110</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I53" s="2">
         <v>73</v>
@@ -4367,21 +4366,21 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>19</v>
@@ -4390,13 +4389,13 @@
         <v>20</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I54" s="2">
         <v>56</v>
@@ -4405,21 +4404,21 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>19</v>
@@ -4434,7 +4433,7 @@
         <v>51</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I55" s="2">
         <v>54</v>
@@ -4443,18 +4442,18 @@
         <v>6</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>83</v>
@@ -4466,7 +4465,7 @@
         <v>113</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I56" s="2">
         <v>74</v>
@@ -4475,21 +4474,21 @@
         <v>7</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>10</v>
@@ -4501,7 +4500,7 @@
         <v>11</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I57" s="2">
         <v>41</v>
@@ -4510,21 +4509,21 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>19</v>
@@ -4539,10 +4538,10 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I58" s="2">
         <v>45</v>
@@ -4551,21 +4550,21 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>19</v>
@@ -4580,10 +4579,10 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I59" s="2">
         <v>51</v>
@@ -4592,21 +4591,21 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -4618,13 +4617,13 @@
         <v>193</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I60" s="2">
         <v>58</v>
@@ -4633,21 +4632,21 @@
         <v>7</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>19</v>
@@ -4662,7 +4661,7 @@
         <v>55</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>57</v>
@@ -4671,21 +4670,21 @@
         <v>6</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>19</v>
@@ -4700,7 +4699,7 @@
         <v>54</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I62" s="2">
         <v>55</v>
@@ -4709,21 +4708,21 @@
         <v>6</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>19</v>
@@ -4738,7 +4737,7 @@
         <v>52</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>53</v>
@@ -4747,21 +4746,21 @@
         <v>6</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>114</v>
@@ -4773,7 +4772,7 @@
         <v>118</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I64" s="2">
         <v>75</v>
@@ -4782,21 +4781,21 @@
         <v>4</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>19</v>
@@ -4811,10 +4810,10 @@
         <v>23</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I65" s="2">
         <v>46</v>
@@ -4823,21 +4822,21 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>19</v>
@@ -4852,10 +4851,10 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I66" s="2">
         <v>46</v>
@@ -4864,21 +4863,21 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>19</v>
@@ -4893,10 +4892,10 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I67" s="2">
         <v>49</v>
@@ -4905,21 +4904,21 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>19</v>
@@ -4934,10 +4933,10 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I68" s="2">
         <v>52</v>
@@ -4946,21 +4945,21 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>19</v>
@@ -4975,10 +4974,10 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I69" s="2">
         <v>52</v>
@@ -4987,21 +4986,21 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>19</v>
@@ -5016,10 +5015,10 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I70" s="2">
         <v>48</v>
@@ -5028,21 +5027,21 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>19</v>
@@ -5057,10 +5056,10 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I71" s="2">
         <v>53</v>
@@ -5069,21 +5068,21 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>19</v>
@@ -5095,16 +5094,16 @@
         <v>193</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I72" s="2">
         <v>48</v>
@@ -5113,18 +5112,18 @@
         <v>2</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>19</v>
@@ -5139,13 +5138,13 @@
         <v>188</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I73" s="2">
         <v>51</v>
@@ -5154,21 +5153,21 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>19</v>
@@ -5183,10 +5182,10 @@
         <v>189</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I74" s="2">
         <v>58</v>
@@ -5195,21 +5194,21 @@
         <v>7</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>83</v>
@@ -5221,7 +5220,7 @@
         <v>190</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I75" s="2">
         <v>74</v>
@@ -5230,21 +5229,21 @@
         <v>7</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>119</v>
@@ -5256,10 +5255,10 @@
         <v>191</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I76" s="2">
         <v>78</v>
@@ -5268,21 +5267,21 @@
         <v>6</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U76" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>19</v>
@@ -5297,13 +5296,13 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I77" s="2">
         <v>52</v>
@@ -5312,21 +5311,21 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>19</v>
@@ -5341,13 +5340,13 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I78" s="2">
         <v>53</v>
@@ -5356,21 +5355,21 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>125</v>
@@ -5382,10 +5381,10 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I79" s="2">
         <v>82</v>
@@ -5394,24 +5393,24 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>141</v>
@@ -5423,7 +5422,7 @@
         <v>151</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I80" s="2">
         <v>86</v>
@@ -5432,24 +5431,24 @@
         <v>4</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="144" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>141</v>
@@ -5461,7 +5460,7 @@
         <v>149</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I81" s="2">
         <v>86</v>
@@ -5470,21 +5469,21 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>141</v>
@@ -5496,10 +5495,10 @@
         <v>150</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I82" s="2">
         <v>86</v>
@@ -5508,21 +5507,21 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>193</v>
@@ -5531,24 +5530,24 @@
         <v>177</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>178</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>19</v>
@@ -5557,13 +5556,13 @@
         <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>62</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I84" s="2">
         <v>57</v>
@@ -5575,21 +5574,21 @@
         <v>176</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>10</v>
@@ -5601,7 +5600,7 @@
         <v>14</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I85" s="2">
         <v>42</v>
@@ -5610,18 +5609,18 @@
         <v>1</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>10</v>
@@ -5633,7 +5632,7 @@
         <v>13</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>15</v>
@@ -5642,18 +5641,18 @@
         <v>1</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>10</v>
@@ -5665,7 +5664,7 @@
         <v>16</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I87" s="2">
         <v>43</v>
@@ -5674,18 +5673,18 @@
         <v>1</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
@@ -5694,13 +5693,13 @@
         <v>193</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I88" s="2">
         <v>37</v>
@@ -5709,21 +5708,21 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2</v>
@@ -5732,10 +5731,10 @@
         <v>193</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>3</v>
@@ -5744,21 +5743,21 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
@@ -5767,13 +5766,13 @@
         <v>193</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>4</v>
@@ -5782,18 +5781,18 @@
         <v>1</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2</v>
@@ -5802,36 +5801,36 @@
         <v>193</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I91" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>193</v>
@@ -5840,24 +5839,24 @@
         <v>160</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>19</v>
@@ -5866,16 +5865,16 @@
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>61</v>
@@ -5884,21 +5883,21 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>19</v>
@@ -5913,13 +5912,13 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I94" s="2">
         <v>46</v>
@@ -5928,24 +5927,24 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>19</v>
@@ -5960,10 +5959,10 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I95" s="2">
         <v>52</v>
@@ -5972,21 +5971,21 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>114</v>
@@ -5998,7 +5997,7 @@
         <v>115</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I96" s="2">
         <v>75</v>
@@ -6007,21 +6006,21 @@
         <v>3</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>193</v>
@@ -6030,30 +6029,30 @@
         <v>173</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>141</v>
@@ -6065,7 +6064,7 @@
         <v>155</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I98" s="2">
         <v>88</v>
@@ -6074,21 +6073,21 @@
         <v>7</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>141</v>
@@ -6097,13 +6096,13 @@
         <v>195</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I99" s="2">
         <v>83</v>
@@ -6112,24 +6111,24 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>141</v>
@@ -6141,10 +6140,10 @@
         <v>153</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I100" s="2">
         <v>87</v>
@@ -6153,21 +6152,21 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>83</v>
@@ -6179,7 +6178,7 @@
         <v>102</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I101" s="2">
         <v>71</v>
@@ -6188,21 +6187,21 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>125</v>
@@ -6214,7 +6213,7 @@
         <v>130</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I102" s="2">
         <v>80</v>
@@ -6223,21 +6222,21 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>141</v>
@@ -6249,10 +6248,10 @@
         <v>147</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>148</v>
@@ -6264,18 +6263,18 @@
         <v>166</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>141</v>
@@ -6284,13 +6283,13 @@
         <v>195</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I104" s="2">
         <v>88</v>
@@ -6299,27 +6298,27 @@
         <v>7</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>193</v>
@@ -6328,27 +6327,27 @@
         <v>163</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K105" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="U105" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="L105" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N105" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="U105" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>19</v>
@@ -6363,10 +6362,10 @@
         <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I106" s="2">
         <v>60</v>
@@ -6375,24 +6374,24 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U106" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>19</v>
@@ -6407,7 +6406,7 @@
         <v>74</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I107" s="2">
         <v>61</v>
@@ -6416,24 +6415,24 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>19</v>
@@ -6448,7 +6447,7 @@
         <v>76</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>77</v>
@@ -6457,19 +6456,19 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U108" s="2" t="s">
         <v>162</v>
@@ -6477,7 +6476,7 @@
     </row>
     <row r="109" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>83</v>
@@ -6489,7 +6488,7 @@
         <v>107</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I109" s="2">
         <v>72</v>
@@ -6498,21 +6497,21 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>83</v>
@@ -6524,7 +6523,7 @@
         <v>112</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I110" s="2">
         <v>74</v>
@@ -6534,21 +6533,21 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>83</v>
@@ -6560,7 +6559,7 @@
         <v>89</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>90</v>
@@ -6569,21 +6568,21 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>83</v>
@@ -6596,7 +6595,7 @@
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I112" s="2">
         <v>65</v>
@@ -6605,24 +6604,24 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>83</v>
@@ -6637,7 +6636,7 @@
         <v>97</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I113" s="2">
         <v>70</v>
@@ -6646,18 +6645,18 @@
         <v>4</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>10</v>
@@ -6666,10 +6665,10 @@
         <v>193</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>8</v>
@@ -6678,21 +6677,21 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>5</v>
@@ -6704,7 +6703,7 @@
         <v>7</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>12</v>
@@ -6713,24 +6712,24 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>19</v>
@@ -6745,10 +6744,10 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I116" s="2">
         <v>62</v>
@@ -6757,49 +6756,49 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>179</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>193</v>
@@ -6810,21 +6809,21 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>119</v>
@@ -6836,7 +6835,7 @@
         <v>123</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>124</v>
@@ -6848,21 +6847,21 @@
         <v>170</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U119" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>19</v>
@@ -6877,10 +6876,10 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I120" s="2">
         <v>51</v>
@@ -6889,21 +6888,21 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>83</v>
@@ -6915,7 +6914,7 @@
         <v>93</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I121" s="2">
         <v>68</v>
@@ -6924,21 +6923,21 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>114</v>
@@ -6950,7 +6949,7 @@
         <v>116</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I122" s="2">
         <v>75</v>
@@ -6959,21 +6958,21 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>125</v>
@@ -6985,7 +6984,7 @@
         <v>134</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I123" s="2">
         <v>81</v>
@@ -6997,18 +6996,18 @@
         <v>168</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>19</v>
@@ -7023,13 +7022,13 @@
         <v>71</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I124" s="2">
         <v>60</v>
@@ -7038,21 +7037,21 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>19</v>
@@ -7067,10 +7066,10 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I125" s="2">
         <v>61</v>
@@ -7079,24 +7078,24 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>19</v>
@@ -7111,10 +7110,10 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I126" s="2">
         <v>61</v>
@@ -7123,21 +7122,21 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>10</v>
@@ -7149,22 +7148,22 @@
         <v>183</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>182</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U127" s="2" t="s">
         <v>184</v>
@@ -7172,7 +7171,7 @@
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>83</v>
@@ -7184,7 +7183,7 @@
         <v>108</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>109</v>
@@ -7193,21 +7192,21 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>83</v>
@@ -7219,7 +7218,7 @@
         <v>111</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I129" s="2">
         <v>73</v>
@@ -7228,18 +7227,18 @@
         <v>6</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>19</v>
@@ -7254,10 +7253,10 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I130" s="2">
         <v>63</v>
@@ -7266,21 +7265,21 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>19</v>
@@ -7295,10 +7294,10 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I131" s="2">
         <v>63</v>
@@ -7307,21 +7306,21 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>19</v>
@@ -7336,13 +7335,13 @@
         <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I132" s="2">
         <v>63</v>
@@ -7351,24 +7350,24 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>83</v>
@@ -7380,11 +7379,11 @@
         <v>105</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I133" s="2">
         <v>72</v>
@@ -7393,21 +7392,21 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>19</v>
@@ -7423,10 +7422,10 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>34</v>
@@ -7435,18 +7434,18 @@
         <v>3</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>19</v>
@@ -7461,13 +7460,13 @@
         <v>36</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>37</v>
@@ -7476,21 +7475,21 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>19</v>
@@ -7505,10 +7504,10 @@
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I136" s="2">
         <v>51</v>
@@ -7517,18 +7516,18 @@
         <v>3</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>125</v>
@@ -7540,7 +7539,7 @@
         <v>132</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>133</v>
@@ -7549,21 +7548,21 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>125</v>
@@ -7578,24 +7577,24 @@
         <v>169</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>125</v>
@@ -7607,7 +7606,7 @@
         <v>140</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I139" s="2">
         <v>82</v>
@@ -7616,24 +7615,24 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>5</v>
@@ -7645,10 +7644,10 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I140" s="2">
         <v>40</v>
@@ -7657,21 +7656,21 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>83</v>
@@ -7683,7 +7682,7 @@
         <v>197</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I141" s="2">
         <v>69</v>
@@ -7695,21 +7694,21 @@
         <v>174</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U141" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>83</v>
@@ -7718,452 +7717,455 @@
         <v>194</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I142" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="U142" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="M142" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N142" s="2" t="s">
+    </row>
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N143" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="U142" s="12" t="s">
+      <c r="U143" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="U144" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="U145" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="U146" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J147" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K143" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="L143" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M143" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N143" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="U143" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="L144" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N144" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="U144" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="K145" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M145" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N145" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="U145" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="K147" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L146" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M146" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N146" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="U146" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="L147" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I148" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>412</v>
+      <c r="K148" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N148" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="N149" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="K149" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="L149" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="M149" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="N149" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="U149" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="B151" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="H150" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="H151" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="K151" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="L150" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M150" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N150" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
+      <c r="L151" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E151" s="2" t="s">
+      <c r="B152" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J151" s="2" t="s">
+      <c r="H152" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J153" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="K151" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="L151" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M151" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N151" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="K153" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="L152" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M152" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N152" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="L153" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="R153" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H153" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="B154" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="K154" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="L153" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M153" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="N153" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="R153" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="L154" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>125</v>
@@ -8175,38 +8177,49 @@
         <v>139</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="J156" s="2">
         <v>6</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R156" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="U156" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V156" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Wg"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N146">
     <sortCondition ref="E2:E146"/>
     <sortCondition ref="I2:I146"/>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BC3983-F2BC-4346-B33D-0B4526380DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00732F77-BEF1-4709-9797-6F635CBFC53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1852,12 +1852,6 @@
     <t>vudivers</t>
   </si>
   <si>
-    <t>//node[@pt="ww" and not(%Tarsp_kijkVU%) and ancestor::node[@cat="top" and count(.//node[%realwordnode%]) = 1 ]]</t>
-  </si>
-  <si>
-    <t>//node[@pt="n" and %realwordnode% and @lemma!="kijk"]/ancestor::node[@cat="top" and  count(.//node[%realwordnode%])=1]</t>
-  </si>
-  <si>
     <t>//node[%Tarsp_Hwwvd%]</t>
   </si>
   <si>
@@ -1919,6 +1913,12 @@
   </si>
   <si>
     <t>//node[%BezZn%]</t>
+  </si>
+  <si>
+    <t>//node[@pt="ww" and not(%Tarsp_kijkVU%) and %thisistheonlyrealword%]</t>
+  </si>
+  <si>
+    <t>//node[@pt="n" and %realwordnode% and @lemma!="kijk" and %thisistheonlyrealword%]</t>
   </si>
 </sst>
 </file>
@@ -2340,11 +2340,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2429,7 +2429,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>213</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>214</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>215</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>216</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>217</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>220</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>353</v>
@@ -2821,7 +2821,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>223</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>353</v>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>353</v>
@@ -2958,7 +2958,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>353</v>
@@ -3031,7 +3031,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>229</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>230</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>353</v>
@@ -3110,7 +3110,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>231</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>353</v>
@@ -3212,7 +3212,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>234</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="23.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>235</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>353</v>
@@ -3478,7 +3478,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>241</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>242</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>244</v>
       </c>
@@ -3633,10 +3633,10 @@
         <v>442</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>245</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>246</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>248</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>353</v>
@@ -3858,7 +3858,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>251</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>252</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>253</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>254</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>255</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>256</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>257</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>258</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>261</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>262</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>263</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>353</v>
@@ -4378,7 +4378,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>265</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>269</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>270</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>271</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>276</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>277</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>278</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>279</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>280</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>281</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>282</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>283</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>284</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>285</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>287</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>288</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>289</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>290</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>291</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>292</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>293</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>295</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>299</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>300</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>301</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>386</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>303</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>304</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>305</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>307</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>308</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>309</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>353</v>
@@ -6126,7 +6126,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>310</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>312</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>313</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>314</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>316</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>317</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>318</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>353</v>
@@ -6689,7 +6689,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>325</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>353</v>
@@ -6727,7 +6727,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>326</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>329</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>330</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>353</v>
@@ -6970,7 +6970,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>333</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>334</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>71</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>570</v>
@@ -7049,7 +7049,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>335</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>336</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>340</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>341</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>342</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>344</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>345</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>347</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>349</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>350</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>353</v>
@@ -7741,7 +7741,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>390</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>391</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>392</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>400</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>456</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>411</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>353</v>
@@ -7977,7 +7977,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>458</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>459</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>460</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>461</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>466</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>489</v>
       </c>
@@ -8163,9 +8163,9 @@
         <v>443</v>
       </c>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>125</v>
@@ -8183,37 +8183,32 @@
         <v>353</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J156" s="2">
         <v>6</v>
       </c>
       <c r="K156" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R156" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="U156" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="L156" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="M156" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R156" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="U156" s="2" t="s">
-        <v>601</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:V156" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Wg"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="11">
       <filters>
         <filter val="yes"/>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00732F77-BEF1-4709-9797-6F635CBFC53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72B7A31-07D6-4FCB-803F-AD59B8CC93CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="611">
   <si>
     <t>Item</t>
   </si>
@@ -1509,9 +1509,6 @@
   </si>
   <si>
     <t>]</t>
-  </si>
-  <si>
-    <t>// node[@rel="mod" and (not(@lemma) or (@lemma!="ook" and @lemma!="dan")) and parent::node[@cat="np" and node[@rel="hd" and @pt!="ww"]] and @begin &gt;= ../node[@rel="hd"]/@end]</t>
   </si>
   <si>
     <t>mktarspform</t>
@@ -1919,6 +1916,12 @@
   </si>
   <si>
     <t>//node[@pt="n" and %realwordnode% and @lemma!="kijk" and %thisistheonlyrealword%]</t>
+  </si>
+  <si>
+    <t>// node[@rel="mod" and @cat="pp" and parent::node[@cat="np" and node[@rel="hd" and @pt!="ww"]] and @begin &gt;= ../node[@rel="hd"]/@end]</t>
+  </si>
+  <si>
+    <t>//node[%VzBepBvZn%]</t>
   </si>
 </sst>
 </file>
@@ -2340,11 +2343,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F97" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K115" sqref="K115"/>
+      <selection pane="bottomRight" activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2408,22 +2411,22 @@
         <v>441</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2443,13 +2446,13 @@
         <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>353</v>
@@ -2461,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>353</v>
@@ -2555,7 +2558,7 @@
         <v>442</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2619,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>353</v>
@@ -2648,7 +2651,7 @@
         <v>193</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>353</v>
@@ -2660,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>354</v>
@@ -2736,7 +2739,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>353</v>
@@ -2774,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>353</v>
@@ -2838,7 +2841,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>353</v>
@@ -2850,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>353</v>
@@ -2885,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>353</v>
@@ -2958,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>353</v>
@@ -2987,7 +2990,7 @@
         <v>353</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>354</v>
@@ -3086,7 +3089,7 @@
         <v>389</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>353</v>
@@ -3098,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>353</v>
@@ -3165,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>353</v>
@@ -3200,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>353</v>
@@ -3229,7 +3232,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>353</v>
@@ -3241,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>353</v>
@@ -3273,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>353</v>
@@ -3285,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>353</v>
@@ -3297,7 +3300,7 @@
         <v>442</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -3355,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>353</v>
@@ -3463,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>353</v>
@@ -3501,7 +3504,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>353</v>
@@ -3551,7 +3554,7 @@
         <v>442</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
@@ -3621,7 +3624,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>353</v>
@@ -3633,7 +3636,7 @@
         <v>442</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -3659,7 +3662,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>353</v>
@@ -3764,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>353</v>
@@ -3793,7 +3796,7 @@
         <v>209</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>353</v>
@@ -3805,7 +3808,7 @@
         <v>363</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>353</v>
@@ -3834,7 +3837,7 @@
         <v>210</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>353</v>
@@ -3846,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>353</v>
@@ -3872,7 +3875,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>353</v>
@@ -3884,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>353</v>
@@ -4004,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>353</v>
@@ -4042,7 +4045,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>353</v>
@@ -4077,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>353</v>
@@ -4109,7 +4112,7 @@
         <v>202</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>353</v>
@@ -4121,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>353</v>
@@ -4185,7 +4188,7 @@
         <v>354</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>354</v>
@@ -4293,7 +4296,7 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>353</v>
@@ -4331,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>353</v>
@@ -4366,7 +4369,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>353</v>
@@ -4404,7 +4407,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>353</v>
@@ -4483,7 +4486,7 @@
         <v>442</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -4509,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>354</v>
@@ -4538,7 +4541,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>353</v>
@@ -4550,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>353</v>
@@ -4579,7 +4582,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>353</v>
@@ -4591,7 +4594,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>353</v>
@@ -4641,7 +4644,7 @@
         <v>442</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -4822,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>353</v>
@@ -4851,7 +4854,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>353</v>
@@ -4863,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>353</v>
@@ -4892,7 +4895,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>353</v>
@@ -4904,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>353</v>
@@ -4933,7 +4936,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>353</v>
@@ -4974,7 +4977,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>353</v>
@@ -5015,7 +5018,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>353</v>
@@ -5027,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>353</v>
@@ -5056,7 +5059,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>353</v>
@@ -5068,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>353</v>
@@ -5097,10 +5100,10 @@
         <v>405</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>353</v>
@@ -5138,10 +5141,10 @@
         <v>188</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>353</v>
@@ -5153,7 +5156,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>353</v>
@@ -5203,7 +5206,7 @@
         <v>442</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5238,7 +5241,7 @@
         <v>442</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5296,10 +5299,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>353</v>
@@ -5311,7 +5314,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>353</v>
@@ -5340,10 +5343,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>353</v>
@@ -5355,7 +5358,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>353</v>
@@ -5381,7 +5384,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>353</v>
@@ -5405,7 +5408,7 @@
         <v>442</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
@@ -5469,7 +5472,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>353</v>
@@ -5507,7 +5510,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>353</v>
@@ -5583,7 +5586,7 @@
         <v>442</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -5696,7 +5699,7 @@
         <v>381</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>353</v>
@@ -5708,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>353</v>
@@ -5743,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>353</v>
@@ -5804,7 +5807,7 @@
         <v>382</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>353</v>
@@ -5842,7 +5845,7 @@
         <v>353</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>354</v>
@@ -5883,7 +5886,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>353</v>
@@ -5912,10 +5915,10 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>353</v>
@@ -5927,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>353</v>
@@ -5959,7 +5962,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>353</v>
@@ -5971,7 +5974,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>353</v>
@@ -6038,7 +6041,7 @@
         <v>451</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>353</v>
@@ -6082,7 +6085,7 @@
         <v>442</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6111,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>353</v>
@@ -6187,7 +6190,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>353</v>
@@ -6222,7 +6225,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>353</v>
@@ -6310,7 +6313,7 @@
         <v>454</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>167</v>
@@ -6374,7 +6377,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>353</v>
@@ -6415,7 +6418,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>353</v>
@@ -6456,7 +6459,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>353</v>
@@ -6497,7 +6500,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>353</v>
@@ -6531,7 +6534,9 @@
       <c r="J110" s="2">
         <v>7</v>
       </c>
-      <c r="K110" s="9"/>
+      <c r="K110" s="9" t="s">
+        <v>610</v>
+      </c>
       <c r="L110" s="10" t="s">
         <v>353</v>
       </c>
@@ -6542,7 +6547,7 @@
         <v>442</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6568,7 +6573,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>353</v>
@@ -6604,7 +6609,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>353</v>
@@ -6616,7 +6621,7 @@
         <v>442</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -6665,7 +6670,7 @@
         <v>193</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>353</v>
@@ -6677,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>354</v>
@@ -6712,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>353</v>
@@ -6744,7 +6749,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>353</v>
@@ -6876,7 +6881,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>353</v>
@@ -6888,7 +6893,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>353</v>
@@ -6923,7 +6928,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>353</v>
@@ -6958,7 +6963,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>354</v>
@@ -7022,10 +7027,10 @@
         <v>71</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>353</v>
@@ -7037,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>353</v>
@@ -7066,7 +7071,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>353</v>
@@ -7078,7 +7083,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>353</v>
@@ -7110,7 +7115,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>353</v>
@@ -7122,7 +7127,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>353</v>
@@ -7192,7 +7197,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>353</v>
@@ -7253,7 +7258,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>353</v>
@@ -7265,7 +7270,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>353</v>
@@ -7294,7 +7299,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>353</v>
@@ -7306,7 +7311,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>353</v>
@@ -7338,7 +7343,7 @@
         <v>440</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>353</v>
@@ -7350,7 +7355,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>353</v>
@@ -7422,7 +7427,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>353</v>
@@ -7463,7 +7468,7 @@
         <v>204</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>353</v>
@@ -7475,7 +7480,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>353</v>
@@ -7504,7 +7509,7 @@
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>353</v>
@@ -7627,7 +7632,7 @@
         <v>442</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -7644,7 +7649,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>353</v>
@@ -7656,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>353</v>
@@ -7717,7 +7722,7 @@
         <v>194</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>353</v>
@@ -7921,7 +7926,7 @@
         <v>409</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>353</v>
@@ -7933,7 +7938,7 @@
         <v>411</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>353</v>
@@ -8105,7 +8110,7 @@
         <v>443</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
@@ -8139,19 +8144,19 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>353</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>353</v>
@@ -8165,7 +8170,7 @@
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>125</v>
@@ -8177,34 +8182,34 @@
         <v>139</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>353</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J156" s="2">
         <v>6</v>
       </c>
       <c r="K156" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="R156" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="L156" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="M156" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="R156" s="2" t="s">
+      <c r="U156" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="U156" s="2" t="s">
-        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/src/sastadev/data/methods/TARSP_Index_Current.xlsx
+++ b/src/sastadev/data/methods/TARSP_Index_Current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72B7A31-07D6-4FCB-803F-AD59B8CC93CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE459F3-262A-4509-8E0D-21BCCE176804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1340,9 +1340,6 @@
     <t>Inversie,+inv</t>
   </si>
   <si>
-    <t>//node[@lemma="alles"  or @lemma="niets" or @lemma="niks" or (@lemma="wat" and @vwtype= "onbep") or @lemma="u" or @lemma="ons"  or @lemma="zelf"]</t>
-  </si>
-  <si>
     <t>//node[@lemma="ja" or @lemma="nee"]</t>
   </si>
   <si>
@@ -1556,9 +1553,6 @@
   </si>
   <si>
     <t>vu nee/ja, vu ja/nee,V.U. Ja/nee, nee, ja</t>
-  </si>
-  <si>
-    <t>//node[@lemma="jij" or (@lemma="je"  and (@vwtype="pr" or @vwtype="pers") and (@rel="su" ))]</t>
   </si>
   <si>
     <t>//node[%Tarsp_B%]</t>
@@ -1812,8 +1806,109 @@
 </t>
   </si>
   <si>
+    <t>//node[@pt="ww" and @pvagr="met-t" and not(%Tarsp_Kop%) and
+not(%Tarsp_hww% or %hebbenwordenzijn%  ) ]</t>
+  </si>
+  <si>
+    <t>//node[%Tarsp_BX%]</t>
+  </si>
+  <si>
+    <t>WVC</t>
+  </si>
+  <si>
+    <t>//node[%MvTT% ]</t>
+  </si>
+  <si>
+    <t>//node[%Xneg%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//node[%bbvb%]
+</t>
+  </si>
+  <si>
+    <t>hequery</t>
+  </si>
+  <si>
+    <t>vudivers</t>
+  </si>
+  <si>
+    <t>//node[%Tarsp_Hwwvd%]</t>
+  </si>
+  <si>
+    <t>//node[@rel="svp" and @pt and not(%svpofhww%) and parent::node[node[@pt="ww" and contains(@lemma,"_") and @rel ="hd"]]]</t>
+  </si>
+  <si>
+    <t>tarsp_verkl</t>
+  </si>
+  <si>
+    <t>tarsp_mvzn</t>
+  </si>
+  <si>
+    <t>tarsp2005,tarsp2017</t>
+  </si>
+  <si>
+    <t>WOndX</t>
+  </si>
+  <si>
+    <t>//node[node[@rel="hd" and @pt="vz"] and 
+       node[@rel="obj1" and 
+            ( (@pt="vz" or @pt="bw") or 
+              (%Rpronoun% and @begin&gt;=../node[@rel="hd"]/@end)) ]]</t>
+  </si>
+  <si>
+    <t>T166</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>//node[ @lemma="niets" or @lemma="niks" or @lemma="zelf"]</t>
+  </si>
+  <si>
+    <t>tarsp2017,auris</t>
+  </si>
+  <si>
+    <t>taalmaat is veranderd in 2017; vgl T085</t>
+  </si>
+  <si>
+    <t>//node[node[(@lemma="een" or @lemma="'n") and @pt="lid"] and node[(@pt="n" or (@pt="adj" and @positie="nom")) and @rel="hd"] and count(node)=2 ]</t>
+  </si>
+  <si>
+    <t>bbx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//node[%bvb% ] </t>
+  </si>
+  <si>
+    <t>//node[@rel="mod"and @cat="cp" and not(%Tarsp_ofmod%) and  node[@rel="body" and node[@pt="ww" and @pvagr and @rel="hd"]]]</t>
+  </si>
+  <si>
+    <t>//node[%BepBvZn%]</t>
+  </si>
+  <si>
+    <t>//node[%BvBepZn% ]</t>
+  </si>
+  <si>
+    <t>//node[%OvWG4%]</t>
+  </si>
+  <si>
+    <t>//node[%BezZn%]</t>
+  </si>
+  <si>
+    <t>//node[@pt="n" and %realwordnode% and @lemma!="kijk" and %thisistheonlyrealword%]</t>
+  </si>
+  <si>
+    <t>// node[@rel="mod" and @cat="pp" and parent::node[@cat="np" and node[@rel="hd" and @pt!="ww"]] and @begin &gt;= ../node[@rel="hd"]/@end]</t>
+  </si>
+  <si>
+    <t>//node[%VzBepBvZn%]</t>
+  </si>
+  <si>
+    <t>//node[@pt="ww" and not(%verbal_VU%) and %thisistheonlyrealword%]</t>
+  </si>
+  <si>
     <t>//node[@pt="ww" and @pvtijd="tgw" and
-        not(%Tarsp_kijkVU%) and not(%Tarsp_Kop%) and
+        not(%verbal_VU%) and not(%Tarsp_Kop%) and
  not(%Tarsp_hww% or
      @lemma = "hebben" or
      @lemma = "worden" or
@@ -1823,105 +1918,10 @@
 and @pvagr="ev"  ]</t>
   </si>
   <si>
-    <t>//node[@pt="ww" and @pvagr="met-t" and not(%Tarsp_Kop%) and
-not(%Tarsp_hww% or %hebbenwordenzijn%  ) ]</t>
-  </si>
-  <si>
-    <t>//node[%Tarsp_BX%]</t>
-  </si>
-  <si>
-    <t>WVC</t>
-  </si>
-  <si>
-    <t>//node[%MvTT% ]</t>
-  </si>
-  <si>
-    <t>//node[%Xneg%]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//node[%bbvb%]
-</t>
-  </si>
-  <si>
-    <t>hequery</t>
-  </si>
-  <si>
-    <t>vudivers</t>
-  </si>
-  <si>
-    <t>//node[%Tarsp_Hwwvd%]</t>
-  </si>
-  <si>
-    <t>//node[@rel="svp" and @pt and not(%svpofhww%) and parent::node[node[@pt="ww" and contains(@lemma,"_") and @rel ="hd"]]]</t>
-  </si>
-  <si>
-    <t>tarsp_verkl</t>
-  </si>
-  <si>
-    <t>tarsp_mvzn</t>
-  </si>
-  <si>
-    <t>tarsp2005,tarsp2017</t>
-  </si>
-  <si>
-    <t>WOndX</t>
-  </si>
-  <si>
-    <t>//node[node[@rel="hd" and @pt="vz"] and 
-       node[@rel="obj1" and 
-            ( (@pt="vz" or @pt="bw") or 
-              (%Rpronoun% and @begin&gt;=../node[@rel="hd"]/@end)) ]]</t>
-  </si>
-  <si>
-    <t>T166</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>//node[ @lemma="niets" or @lemma="niks" or @lemma="zelf"]</t>
-  </si>
-  <si>
-    <t>tarsp2017,auris</t>
-  </si>
-  <si>
-    <t>taalmaat is veranderd in 2017; vgl T085</t>
-  </si>
-  <si>
-    <t>//node[node[(@lemma="een" or @lemma="'n") and @pt="lid"] and node[(@pt="n" or (@pt="adj" and @positie="nom")) and @rel="hd"] and count(node)=2 ]</t>
-  </si>
-  <si>
-    <t>bbx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//node[%bvb% ] </t>
-  </si>
-  <si>
-    <t>//node[@rel="mod"and @cat="cp" and not(%Tarsp_ofmod%) and  node[@rel="body" and node[@pt="ww" and @pvagr and @rel="hd"]]]</t>
-  </si>
-  <si>
-    <t>//node[%BepBvZn%]</t>
-  </si>
-  <si>
-    <t>//node[%BvBepZn% ]</t>
-  </si>
-  <si>
-    <t>//node[%OvWG4%]</t>
-  </si>
-  <si>
-    <t>//node[%BezZn%]</t>
-  </si>
-  <si>
-    <t>//node[@pt="ww" and not(%Tarsp_kijkVU%) and %thisistheonlyrealword%]</t>
-  </si>
-  <si>
-    <t>//node[@pt="n" and %realwordnode% and @lemma!="kijk" and %thisistheonlyrealword%]</t>
-  </si>
-  <si>
-    <t>// node[@rel="mod" and @cat="pp" and parent::node[@cat="np" and node[@rel="hd" and @pt!="ww"]] and @begin &gt;= ../node[@rel="hd"]/@end]</t>
-  </si>
-  <si>
-    <t>//node[%VzBepBvZn%]</t>
+    <t>//node[@lemma="jij" or (@lemma="je"  and (@vwtype="pr" or @vwtype="pers") and (@rel="su" )) and not(../node[%dankje_VU%])]</t>
+  </si>
+  <si>
+    <t>//node[@lemma="alles"  or @lemma="niets" or @lemma="niks" or %zelfst_wat% or (@lemma="u" and not(../node[%dankje_VU%])) or @lemma="ons"  or @lemma="zelf"]</t>
   </si>
 </sst>
 </file>
@@ -2043,9 +2043,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2083,7 +2083,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2189,7 +2189,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2331,7 +2331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2343,11 +2343,11 @@
   <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G81" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="K110" sqref="K110"/>
+      <selection pane="bottomRight" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2408,25 +2408,25 @@
         <v>376</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>158</v>
@@ -2446,13 +2446,13 @@
         <v>193</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>353</v>
@@ -2464,7 +2464,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>353</v>
@@ -2473,10 +2473,10 @@
         <v>354</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2514,7 +2514,7 @@
         <v>353</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>425</v>
@@ -2555,10 +2555,10 @@
         <v>354</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2593,7 +2593,7 @@
         <v>354</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>185</v>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>353</v>
@@ -2631,7 +2631,7 @@
         <v>354</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>359</v>
@@ -2651,7 +2651,7 @@
         <v>193</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>353</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>354</v>
@@ -2672,7 +2672,7 @@
         <v>354</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -2710,7 +2710,7 @@
         <v>354</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -2739,7 +2739,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>353</v>
@@ -2748,7 +2748,7 @@
         <v>353</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>373</v>
@@ -2777,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>353</v>
@@ -2786,7 +2786,7 @@
         <v>354</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
@@ -2821,7 +2821,7 @@
         <v>354</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -2841,7 +2841,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>353</v>
@@ -2853,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>353</v>
@@ -2862,7 +2862,7 @@
         <v>354</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -2888,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>353</v>
@@ -2897,7 +2897,7 @@
         <v>354</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
@@ -2926,7 +2926,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>354</v>
@@ -2935,7 +2935,7 @@
         <v>354</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -2961,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>353</v>
@@ -2970,7 +2970,7 @@
         <v>354</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
@@ -2990,7 +2990,7 @@
         <v>353</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>354</v>
@@ -2999,7 +2999,7 @@
         <v>354</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -3031,7 +3031,7 @@
         <v>353</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -3048,7 +3048,7 @@
         <v>193</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>413</v>
@@ -3069,10 +3069,10 @@
         <v>354</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -3089,7 +3089,7 @@
         <v>389</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>353</v>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>353</v>
@@ -3110,7 +3110,7 @@
         <v>353</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -3142,7 +3142,7 @@
         <v>354</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -3168,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>353</v>
@@ -3177,7 +3177,7 @@
         <v>354</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>353</v>
@@ -3212,7 +3212,7 @@
         <v>354</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -3232,7 +3232,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>353</v>
@@ -3244,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>353</v>
@@ -3253,7 +3253,7 @@
         <v>354</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>353</v>
@@ -3288,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>353</v>
@@ -3297,10 +3297,10 @@
         <v>354</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -3332,7 +3332,7 @@
         <v>354</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -3358,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>353</v>
@@ -3367,10 +3367,10 @@
         <v>354</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -3405,7 +3405,7 @@
         <v>354</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -3440,7 +3440,7 @@
         <v>353</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -3466,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>353</v>
@@ -3475,7 +3475,7 @@
         <v>354</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>371</v>
@@ -3504,7 +3504,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>353</v>
@@ -3513,7 +3513,7 @@
         <v>353</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>185</v>
@@ -3551,10 +3551,10 @@
         <v>354</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
@@ -3592,7 +3592,7 @@
         <v>354</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
@@ -3624,7 +3624,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>353</v>
@@ -3633,10 +3633,10 @@
         <v>354</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -3662,7 +3662,7 @@
         <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>353</v>
@@ -3671,7 +3671,7 @@
         <v>354</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -3706,7 +3706,7 @@
         <v>353</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
@@ -3741,7 +3741,7 @@
         <v>353</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -3767,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>353</v>
@@ -3776,7 +3776,7 @@
         <v>354</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -3796,7 +3796,7 @@
         <v>209</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>353</v>
@@ -3808,7 +3808,7 @@
         <v>363</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>353</v>
@@ -3817,7 +3817,7 @@
         <v>354</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -3837,7 +3837,7 @@
         <v>210</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>353</v>
@@ -3849,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>353</v>
@@ -3858,7 +3858,7 @@
         <v>354</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
@@ -3875,7 +3875,7 @@
         <v>145</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>353</v>
@@ -3887,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>353</v>
@@ -3896,10 +3896,10 @@
         <v>353</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -3934,7 +3934,7 @@
         <v>353</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -3972,7 +3972,7 @@
         <v>354</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>161</v>
@@ -4007,7 +4007,7 @@
         <v>3</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>353</v>
@@ -4016,7 +4016,7 @@
         <v>354</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U43" s="2" t="s">
         <v>358</v>
@@ -4045,7 +4045,7 @@
         <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>497</v>
+        <v>609</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>353</v>
@@ -4054,7 +4054,7 @@
         <v>354</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
@@ -4080,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>353</v>
@@ -4089,7 +4089,7 @@
         <v>354</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -4112,7 +4112,7 @@
         <v>202</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>353</v>
@@ -4124,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>353</v>
@@ -4133,7 +4133,7 @@
         <v>354</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
@@ -4159,7 +4159,7 @@
         <v>6</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>353</v>
@@ -4168,7 +4168,7 @@
         <v>354</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U47" s="2" t="s">
         <v>185</v>
@@ -4188,7 +4188,7 @@
         <v>354</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>354</v>
@@ -4197,7 +4197,7 @@
         <v>354</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U48" s="6" t="s">
         <v>180</v>
@@ -4235,7 +4235,7 @@
         <v>354</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -4261,7 +4261,7 @@
         <v>5</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>353</v>
@@ -4270,7 +4270,7 @@
         <v>354</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -4296,7 +4296,7 @@
         <v>4</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>353</v>
@@ -4305,7 +4305,7 @@
         <v>354</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>353</v>
@@ -4343,7 +4343,7 @@
         <v>354</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -4369,7 +4369,7 @@
         <v>6</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>353</v>
@@ -4378,7 +4378,7 @@
         <v>354</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
@@ -4407,7 +4407,7 @@
         <v>6</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>353</v>
@@ -4416,7 +4416,7 @@
         <v>354</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -4451,7 +4451,7 @@
         <v>353</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
@@ -4483,10 +4483,10 @@
         <v>354</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>354</v>
@@ -4521,7 +4521,7 @@
         <v>354</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
@@ -4541,7 +4541,7 @@
         <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>353</v>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>353</v>
@@ -4562,7 +4562,7 @@
         <v>353</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
@@ -4582,7 +4582,7 @@
         <v>39</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>353</v>
@@ -4594,7 +4594,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>353</v>
@@ -4603,7 +4603,7 @@
         <v>354</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
@@ -4641,10 +4641,10 @@
         <v>354</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -4679,7 +4679,7 @@
         <v>354</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U61" s="2" t="s">
         <v>422</v>
@@ -4717,7 +4717,7 @@
         <v>354</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>423</v>
@@ -4755,7 +4755,7 @@
         <v>354</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U63" s="2" t="s">
         <v>421</v>
@@ -4793,7 +4793,7 @@
         <v>353</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
@@ -4825,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>353</v>
@@ -4834,7 +4834,7 @@
         <v>353</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
@@ -4854,7 +4854,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>353</v>
@@ -4866,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>353</v>
@@ -4875,7 +4875,7 @@
         <v>353</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
@@ -4895,7 +4895,7 @@
         <v>35</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>353</v>
@@ -4907,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>353</v>
@@ -4916,7 +4916,7 @@
         <v>354</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
@@ -4936,7 +4936,7 @@
         <v>44</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>353</v>
@@ -4948,7 +4948,7 @@
         <v>4</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>353</v>
@@ -4957,7 +4957,7 @@
         <v>354</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
@@ -4977,7 +4977,7 @@
         <v>43</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>353</v>
@@ -4989,7 +4989,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>353</v>
@@ -4998,7 +4998,7 @@
         <v>353</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
@@ -5018,7 +5018,7 @@
         <v>32</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>353</v>
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>353</v>
@@ -5039,7 +5039,7 @@
         <v>353</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
@@ -5059,7 +5059,7 @@
         <v>46</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>353</v>
@@ -5071,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>353</v>
@@ -5080,7 +5080,7 @@
         <v>353</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
@@ -5100,10 +5100,10 @@
         <v>405</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>353</v>
@@ -5121,7 +5121,7 @@
         <v>354</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
@@ -5141,10 +5141,10 @@
         <v>188</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>353</v>
@@ -5156,7 +5156,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>353</v>
@@ -5165,7 +5165,7 @@
         <v>354</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
@@ -5203,10 +5203,10 @@
         <v>354</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -5238,10 +5238,10 @@
         <v>354</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -5276,7 +5276,7 @@
         <v>354</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U76" s="2" t="s">
         <v>186</v>
@@ -5299,10 +5299,10 @@
         <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>353</v>
@@ -5314,7 +5314,7 @@
         <v>4</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>353</v>
@@ -5323,7 +5323,7 @@
         <v>354</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
@@ -5343,10 +5343,10 @@
         <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>353</v>
@@ -5358,7 +5358,7 @@
         <v>5</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>353</v>
@@ -5367,7 +5367,7 @@
         <v>354</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
@@ -5384,7 +5384,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>353</v>
@@ -5396,7 +5396,7 @@
         <v>6</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>428</v>
+        <v>610</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>353</v>
@@ -5405,10 +5405,10 @@
         <v>354</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
@@ -5443,7 +5443,7 @@
         <v>354</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>164</v>
@@ -5472,7 +5472,7 @@
         <v>4</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>353</v>
@@ -5481,7 +5481,7 @@
         <v>354</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -5510,7 +5510,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>353</v>
@@ -5519,7 +5519,7 @@
         <v>354</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -5545,7 +5545,7 @@
         <v>354</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
@@ -5583,10 +5583,10 @@
         <v>354</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -5618,7 +5618,7 @@
         <v>354</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -5650,7 +5650,7 @@
         <v>354</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -5682,7 +5682,7 @@
         <v>354</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
@@ -5699,7 +5699,7 @@
         <v>381</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>353</v>
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>353</v>
@@ -5720,7 +5720,7 @@
         <v>354</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>353</v>
@@ -5755,7 +5755,7 @@
         <v>354</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
@@ -5790,7 +5790,7 @@
         <v>354</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
@@ -5807,7 +5807,7 @@
         <v>382</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>353</v>
@@ -5819,7 +5819,7 @@
         <v>385</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>353</v>
@@ -5828,7 +5828,7 @@
         <v>354</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -5845,7 +5845,7 @@
         <v>353</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>354</v>
@@ -5854,7 +5854,7 @@
         <v>354</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
@@ -5874,7 +5874,7 @@
         <v>59</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>353</v>
@@ -5886,7 +5886,7 @@
         <v>6</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>353</v>
@@ -5895,7 +5895,7 @@
         <v>353</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
@@ -5915,10 +5915,10 @@
         <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>353</v>
@@ -5930,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>353</v>
@@ -5939,7 +5939,7 @@
         <v>353</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>159</v>
@@ -5962,7 +5962,7 @@
         <v>45</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>353</v>
@@ -5974,7 +5974,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>353</v>
@@ -5983,7 +5983,7 @@
         <v>353</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -6018,7 +6018,7 @@
         <v>353</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
@@ -6035,13 +6035,13 @@
         <v>353</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>353</v>
@@ -6050,7 +6050,7 @@
         <v>354</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
@@ -6082,10 +6082,10 @@
         <v>354</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
@@ -6114,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>353</v>
@@ -6123,10 +6123,10 @@
         <v>354</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
@@ -6155,7 +6155,7 @@
         <v>6</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>353</v>
@@ -6164,7 +6164,7 @@
         <v>353</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
@@ -6190,7 +6190,7 @@
         <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>353</v>
@@ -6199,7 +6199,7 @@
         <v>354</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
@@ -6225,7 +6225,7 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>353</v>
@@ -6234,7 +6234,7 @@
         <v>354</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
@@ -6272,7 +6272,7 @@
         <v>354</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
@@ -6307,13 +6307,13 @@
         <v>354</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>167</v>
@@ -6342,7 +6342,7 @@
         <v>354</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U105" s="2" t="s">
         <v>357</v>
@@ -6377,7 +6377,7 @@
         <v>4</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>353</v>
@@ -6386,7 +6386,7 @@
         <v>354</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U106" s="2" t="s">
         <v>162</v>
@@ -6418,7 +6418,7 @@
         <v>5</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>353</v>
@@ -6427,10 +6427,10 @@
         <v>354</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
@@ -6459,7 +6459,7 @@
         <v>6</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>353</v>
@@ -6468,10 +6468,10 @@
         <v>353</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U108" s="2" t="s">
         <v>162</v>
@@ -6500,7 +6500,7 @@
         <v>6</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>353</v>
@@ -6509,7 +6509,7 @@
         <v>354</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
@@ -6535,7 +6535,7 @@
         <v>7</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>353</v>
@@ -6544,10 +6544,10 @@
         <v>354</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -6573,7 +6573,7 @@
         <v>4</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>353</v>
@@ -6582,7 +6582,7 @@
         <v>353</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6609,7 +6609,7 @@
         <v>3</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>353</v>
@@ -6618,10 +6618,10 @@
         <v>354</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -6656,7 +6656,7 @@
         <v>354</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -6670,7 +6670,7 @@
         <v>193</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>353</v>
@@ -6682,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>354</v>
@@ -6691,7 +6691,7 @@
         <v>353</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -6726,10 +6726,10 @@
         <v>354</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
@@ -6749,7 +6749,7 @@
         <v>79</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>353</v>
@@ -6761,7 +6761,7 @@
         <v>3</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>353</v>
@@ -6770,7 +6770,7 @@
         <v>354</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -6798,7 +6798,7 @@
         <v>354</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -6823,7 +6823,7 @@
         <v>354</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
@@ -6858,7 +6858,7 @@
         <v>354</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U119" s="2" t="s">
         <v>185</v>
@@ -6881,7 +6881,7 @@
         <v>40</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>353</v>
@@ -6893,7 +6893,7 @@
         <v>3</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>353</v>
@@ -6902,7 +6902,7 @@
         <v>354</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
         <v>4</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>353</v>
@@ -6937,7 +6937,7 @@
         <v>354</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -6963,7 +6963,7 @@
         <v>3</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>354</v>
@@ -6972,7 +6972,7 @@
         <v>353</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
@@ -7007,7 +7007,7 @@
         <v>353</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
@@ -7027,10 +7027,10 @@
         <v>71</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>353</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>353</v>
@@ -7051,7 +7051,7 @@
         <v>354</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
@@ -7071,7 +7071,7 @@
         <v>73</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>353</v>
@@ -7083,7 +7083,7 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>353</v>
@@ -7092,7 +7092,7 @@
         <v>354</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U125" s="2" t="s">
         <v>378</v>
@@ -7115,7 +7115,7 @@
         <v>75</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>353</v>
@@ -7127,7 +7127,7 @@
         <v>6</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>353</v>
@@ -7136,7 +7136,7 @@
         <v>353</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -7168,7 +7168,7 @@
         <v>354</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U127" s="2" t="s">
         <v>184</v>
@@ -7197,7 +7197,7 @@
         <v>6</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>353</v>
@@ -7206,7 +7206,7 @@
         <v>354</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
@@ -7238,7 +7238,7 @@
         <v>354</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
@@ -7258,7 +7258,7 @@
         <v>80</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>353</v>
@@ -7270,7 +7270,7 @@
         <v>4</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>353</v>
@@ -7279,7 +7279,7 @@
         <v>354</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
@@ -7299,7 +7299,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>353</v>
@@ -7311,7 +7311,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>353</v>
@@ -7320,7 +7320,7 @@
         <v>354</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
@@ -7340,10 +7340,10 @@
         <v>82</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>353</v>
@@ -7355,7 +7355,7 @@
         <v>6</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>353</v>
@@ -7364,10 +7364,10 @@
         <v>354</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
@@ -7397,7 +7397,7 @@
         <v>6</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>353</v>
@@ -7406,7 +7406,7 @@
         <v>354</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>353</v>
@@ -7445,7 +7445,7 @@
         <v>354</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
@@ -7468,7 +7468,7 @@
         <v>204</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>353</v>
@@ -7480,7 +7480,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>353</v>
@@ -7489,7 +7489,7 @@
         <v>354</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7509,7 +7509,7 @@
         <v>41</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>353</v>
@@ -7527,7 +7527,7 @@
         <v>354</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
@@ -7553,7 +7553,7 @@
         <v>4</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>353</v>
@@ -7562,7 +7562,7 @@
         <v>354</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7591,10 +7591,10 @@
         <v>354</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="72" x14ac:dyDescent="0.3">
@@ -7620,7 +7620,7 @@
         <v>7</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>353</v>
@@ -7629,10 +7629,10 @@
         <v>354</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -7649,7 +7649,7 @@
         <v>6</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>353</v>
@@ -7661,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>353</v>
@@ -7670,7 +7670,7 @@
         <v>353</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
@@ -7705,7 +7705,7 @@
         <v>354</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U141" s="2" t="s">
         <v>196</v>
@@ -7722,7 +7722,7 @@
         <v>194</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>353</v>
@@ -7740,7 +7740,7 @@
         <v>354</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U142" s="12" t="s">
         <v>362</v>
@@ -7766,7 +7766,7 @@
         <v>385</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>353</v>
@@ -7775,7 +7775,7 @@
         <v>354</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U143" s="2" t="s">
         <v>395</v>
@@ -7798,7 +7798,7 @@
         <v>394</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>353</v>
@@ -7807,7 +7807,7 @@
         <v>354</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U144" s="2" t="s">
         <v>395</v>
@@ -7830,7 +7830,7 @@
         <v>394</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>353</v>
@@ -7839,7 +7839,7 @@
         <v>354</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U145" s="2" t="s">
         <v>395</v>
@@ -7853,7 +7853,7 @@
         <v>396</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>353</v>
@@ -7862,10 +7862,10 @@
         <v>402</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>353</v>
@@ -7874,7 +7874,7 @@
         <v>354</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U146" s="2" t="s">
         <v>395</v>
@@ -7882,13 +7882,13 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>353</v>
@@ -7900,7 +7900,7 @@
         <v>363</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>353</v>
@@ -7909,7 +7909,7 @@
         <v>354</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
@@ -7926,7 +7926,7 @@
         <v>409</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>353</v>
@@ -7938,7 +7938,7 @@
         <v>411</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>353</v>
@@ -7947,12 +7947,12 @@
         <v>354</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>396</v>
@@ -7964,11 +7964,11 @@
         <v>354</v>
       </c>
       <c r="I149" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="K149" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="K149" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="L149" s="2" t="s">
         <v>354</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>353</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U149" s="2" t="s">
         <v>395</v>
@@ -7984,13 +7984,13 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>353</v>
@@ -8002,7 +8002,7 @@
         <v>411</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>353</v>
@@ -8011,18 +8011,18 @@
         <v>354</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>353</v>
@@ -8031,10 +8031,10 @@
         <v>402</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>353</v>
@@ -8043,18 +8043,18 @@
         <v>354</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>353</v>
@@ -8063,10 +8063,10 @@
         <v>402</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>353</v>
@@ -8075,18 +8075,18 @@
         <v>354</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>353</v>
@@ -8095,10 +8095,10 @@
         <v>402</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>353</v>
@@ -8107,15 +8107,15 @@
         <v>354</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R153" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>396</v>
@@ -8130,7 +8130,7 @@
         <v>402</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>353</v>
@@ -8139,24 +8139,24 @@
         <v>354</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>353</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>353</v>
@@ -8165,12 +8165,12 @@
         <v>354</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>125</v>
@@ -8182,19 +8182,19 @@
         <v>139</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>353</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J156" s="2">
         <v>6</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>353</v>
@@ -8203,13 +8203,13 @@
         <v>354</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R156" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="U156" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
